--- a/extractedDataSet.xlsx
+++ b/extractedDataSet.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath New Projects\MegaAccountOpening (Excel Template + Signature)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A60B7F-56CC-47DC-A0F5-C498061354FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </x:sheets>
   <x:definedNames/>
-  <x:calcPr calcId="125725"/>
+  <x:calcPr calcId="0"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <x:si>
     <x:t>Full Name</x:t>
   </x:si>
@@ -208,7 +215,7 @@
     <x:t>Alert</x:t>
   </x:si>
   <x:si>
-    <x:t>AAKRITI MAHARJAN</x:t>
+    <x:t>AAKRITI MAMARJAN</x:t>
   </x:si>
   <x:si>
     <x:t>20</x:t>
@@ -235,7 +242,7 @@
     <x:t>Lombini</x:t>
   </x:si>
   <x:si>
-    <x:t>Ropandehi</x:t>
+    <x:t>Rupandehi</x:t>
   </x:si>
   <x:si>
     <x:t>Tyanglaphat</x:t>
@@ -247,10 +254,10 @@
     <x:t>Nepal</x:t>
   </x:si>
   <x:si>
-    <x:t>Kathmandu</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kathmando</x:t>
+    <x:t>Kathmondu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KathmandU</x:t>
   </x:si>
   <x:si>
     <x:t>Tyanglaphaat</x:t>
@@ -259,10 +266,10 @@
     <x:t>9843807041</x:t>
   </x:si>
   <x:si>
-    <x:t>akri29uIGgmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2000001-</x:t>
+    <x:t>akri2gulBqmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2000001</x:t>
   </x:si>
   <x:si>
     <x:t>1000-</x:t>
@@ -274,7 +281,7 @@
     <x:t>Kriti Mahorjan</x:t>
   </x:si>
   <x:si>
-    <x:t>ARYAN MAHARSAN</x:t>
+    <x:t>ARYAN  MAHARSAN</x:t>
   </x:si>
   <x:si>
     <x:t>BROTHER</x:t>
@@ -283,7 +290,7 @@
     <x:t>13092007</x:t>
   </x:si>
   <x:si>
-    <x:t>10072064</x:t>
+    <x:t>10072069</x:t>
   </x:si>
   <x:si>
     <x:t>13</x:t>
@@ -292,19 +299,22 @@
     <x:t>CDO, Nowalparas</x:t>
   </x:si>
   <x:si>
-    <x:t>Sunwal-06 , Nowolporasi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sainomina-o2. Rupondali</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sainomina-o2 , Rupondehi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>atri29uI@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>akri29 u1@gmail.com</x:t>
+    <x:t>Sunwal-06 Nawalporusi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sainomina-02. Rupondali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sainomina-02 Rupondehi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>akriaguicgmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9343807041</x:t>
+  </x:si>
+  <x:si>
+    <x:t>atri29u1@gmail.con</x:t>
   </x:si>
   <x:si>
     <x:t>BIMAL DHAKAL</x:t>
@@ -313,37 +323,34 @@
     <x:t>28</x:t>
   </x:si>
   <x:si>
-    <x:t>CDO. Nawalpart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nawalparasi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>02102/2065</x:t>
+    <x:t>CDO. Nawalpar.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mawalparasi</x:t>
   </x:si>
   <x:si>
     <x:t>Lumbini</x:t>
   </x:si>
   <x:si>
-    <x:t>Rupandehi</x:t>
-  </x:si>
-  <x:si>
     <x:t>Parrona</x:t>
   </x:si>
   <x:si>
     <x:t>Sainamaina</x:t>
   </x:si>
   <x:si>
-    <x:t>Mepal</x:t>
+    <x:t>Hepal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rupardehi</x:t>
   </x:si>
   <x:si>
     <x:t>9802321425</x:t>
   </x:si>
   <x:si>
-    <x:t>bimal.raj496@lgmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>L000001-</x:t>
+    <x:t>bimal. raj496 Glgmailcom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1000001-</x:t>
   </x:si>
   <x:si>
     <x:t>500</x:t>
@@ -352,10 +359,10 @@
     <x:t>Om Prakash</x:t>
   </x:si>
   <x:si>
-    <x:t>IShwara</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROHI T DHAKAL</x:t>
+    <x:t>IShuara</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROHIT DHAKAL</x:t>
   </x:si>
   <x:si>
     <x:t>28122048</x:t>
@@ -364,37 +371,33 @@
     <x:t>10041992</x:t>
   </x:si>
   <x:si>
-    <x:t>3691256</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CDO.Navalparas</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sunwal-06. Nawalparasi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sainamina-o2, Rupandew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Sainamina-o2, Rupandehi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bimal.ra4969gmavl.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bimalraj496@9) gmail u</x:t>
+    <x:t>CDO. Naual para</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunwal-06, Mawalparasi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.Sainamina-02, RupandeW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sainamina-02, Rupandehi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6imalraj496Ggmal.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bimal.raj4969) gmale</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="1" x14ac:knownFonts="1">
     <x:font>
-      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>
@@ -410,30 +413,22 @@
     </x:fill>
   </x:fills>
   <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -442,10 +437,19 @@
   <x:cellStyles count="1">
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </x:ext>
+  </x:extLst>
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -728,584 +732,590 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
   <x:dimension ref="A1:BL3"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:cols>
+    <x:col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+    <x:col min="2" max="2" width="23.570312" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="18.710938" style="1" customWidth="1"/>
+    <x:col min="4" max="4" width="20.570312" style="1" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:64">
-      <x:c r="A1" s="0" t="s">
+    <x:row r="1" spans="1:64" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="0" t="s">
+      <x:c r="C1" s="1" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="D1" s="1" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+      <x:c r="E1" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="0" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="0" t="s">
+      <x:c r="G1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="0" t="s">
+      <x:c r="H1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="0" t="s">
+      <x:c r="I1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="0" t="s">
+      <x:c r="J1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="0" t="s">
+      <x:c r="K1" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="0" t="s">
+      <x:c r="L1" s="1" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="0" t="s">
+      <x:c r="M1" s="1" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="0" t="s">
+      <x:c r="N1" s="1" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="0" t="s">
+      <x:c r="O1" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="0" t="s">
+      <x:c r="P1" s="1" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="0" t="s">
+      <x:c r="Q1" s="1" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="0" t="s">
+      <x:c r="R1" s="1" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="0" t="s">
+      <x:c r="S1" s="1" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="0" t="s">
+      <x:c r="T1" s="1" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="U1" s="0" t="s">
+      <x:c r="U1" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="V1" s="0" t="s">
+      <x:c r="V1" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="W1" s="0" t="s">
+      <x:c r="W1" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="X1" s="0" t="s">
+      <x:c r="X1" s="1" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Y1" s="0" t="s">
+      <x:c r="Y1" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="0" t="s">
+      <x:c r="Z1" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AA1" s="0" t="s">
+      <x:c r="AA1" s="1" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="AB1" s="0" t="s">
+      <x:c r="AB1" s="1" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="AC1" s="0" t="s">
+      <x:c r="AC1" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="AD1" s="0" t="s">
+      <x:c r="AD1" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="AE1" s="0" t="s">
+      <x:c r="AE1" s="1" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="AF1" s="0" t="s">
+      <x:c r="AF1" s="1" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="AG1" s="0" t="s">
+      <x:c r="AG1" s="1" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="AH1" s="0" t="s">
+      <x:c r="AH1" s="1" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="AI1" s="0" t="s">
+      <x:c r="AI1" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="AJ1" s="0" t="s">
+      <x:c r="AJ1" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="AK1" s="0" t="s">
+      <x:c r="AK1" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="AL1" s="0" t="s">
+      <x:c r="AL1" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="AM1" s="0" t="s">
+      <x:c r="AM1" s="1" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="AN1" s="0" t="s">
+      <x:c r="AN1" s="1" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="AO1" s="0" t="s">
+      <x:c r="AO1" s="1" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="AP1" s="0" t="s">
+      <x:c r="AP1" s="1" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="AQ1" s="0" t="s">
+      <x:c r="AQ1" s="1" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="AR1" s="0" t="s">
+      <x:c r="AR1" s="1" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="AS1" s="0" t="s">
+      <x:c r="AS1" s="1" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="AT1" s="0" t="s">
+      <x:c r="AT1" s="1" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="AU1" s="0" t="s">
+      <x:c r="AU1" s="1" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="AV1" s="0" t="s">
+      <x:c r="AV1" s="1" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="AW1" s="0" t="s">
+      <x:c r="AW1" s="1" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="AX1" s="0" t="s">
+      <x:c r="AX1" s="1" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="AY1" s="0" t="s">
+      <x:c r="AY1" s="1" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="AZ1" s="0" t="s">
+      <x:c r="AZ1" s="1" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="BA1" s="0" t="s">
+      <x:c r="BA1" s="1" t="s">
         <x:v>52</x:v>
       </x:c>
-      <x:c r="BB1" s="0" t="s">
+      <x:c r="BB1" s="1" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="BC1" s="0" t="s">
+      <x:c r="BC1" s="1" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="BD1" s="0" t="s">
+      <x:c r="BD1" s="1" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="BE1" s="0" t="s">
+      <x:c r="BE1" s="1" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="BF1" s="0" t="s">
+      <x:c r="BF1" s="1" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="BG1" s="0" t="s">
+      <x:c r="BG1" s="1" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="BH1" s="0" t="s">
+      <x:c r="BH1" s="1" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="BI1" s="0" t="s">
+      <x:c r="BI1" s="1" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="BJ1" s="0" t="s">
+      <x:c r="BJ1" s="1" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="BK1" s="0" t="s">
+      <x:c r="BK1" s="1" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="BL1" s="0" t="s">
+      <x:c r="BL1" s="1" t="s">
         <x:v>63</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:64">
-      <x:c r="A2" s="0" t="s">
+    <x:row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
+      <x:c r="C2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s">
+      <x:c r="H2" s="1" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="I2" s="0" t="s">
+      <x:c r="I2" s="1" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="J2" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
+      <x:c r="K2" s="1" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="L2" s="1" t="s">
         <x:v>73</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
+      <x:c r="M2" s="1" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="N2" s="0" t="s">
+      <x:c r="N2" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="O2" s="0" t="s">
+      <x:c r="O2" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="P2" s="0" t="s">
+      <x:c r="P2" s="1" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="Q2" s="0" t="s">
+      <x:c r="Q2" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="R2" s="0" t="s">
+      <x:c r="R2" s="1" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="S2" s="0" t="s">
+      <x:c r="S2" s="1" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="T2" s="0" t="s">
+      <x:c r="T2" s="1" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="U2" s="0" t="s">
+      <x:c r="U2" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="V2" s="0" t="s">
+      <x:c r="V2" s="1" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="W2" s="0" t="s">
+      <x:c r="W2" s="1" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="X2" s="0" t="s">
+      <x:c r="X2" s="1" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="Y2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="Z2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AA2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AB2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AC2" s="0" t="s">
+      <x:c r="Y2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Z2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AA2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AB2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AC2" s="1" t="s">
         <x:v>84</x:v>
       </x:c>
-      <x:c r="AD2" s="0" t="s">
+      <x:c r="AD2" s="1" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="AG2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AH2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AI2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AJ2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AK2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AL2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AM2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AN2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AO2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AP2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AQ2" s="0" t="s">
+      <x:c r="AG2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AH2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AI2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AJ2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AK2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AL2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AN2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AO2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AP2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AQ2" s="1" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="AR2" s="0" t="s">
+      <x:c r="AR2" s="1" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="AS2" s="0" t="s">
+      <x:c r="AS2" s="1" t="s">
         <x:v>88</x:v>
       </x:c>
-      <x:c r="AT2" s="0" t="s">
+      <x:c r="AT2" s="1" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="AU2" s="0" t="s">
+      <x:c r="AU2" s="1" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="AV2" s="0" t="s">
+      <x:c r="AV2" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="AW2" s="0" t="s">
+      <x:c r="AW2" s="1" t="s">
         <x:v>91</x:v>
       </x:c>
-      <x:c r="AX2" s="0" t="s">
+      <x:c r="AX2" s="1" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="AY2" s="0" t="s">
+      <x:c r="AY2" s="1" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="AZ2" s="0" t="s">
+      <x:c r="AZ2" s="1" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="BA2" s="0" t="s">
+      <x:c r="BA2" s="1" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="BB2" s="0" t="s">
+      <x:c r="BB2" s="1" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="BC2" s="0" t="s">
+      <x:c r="BC2" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="BD2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BE2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BF2" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BG2" s="1" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="BD2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BE2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BF2" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="BG2" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="BH2" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="BI2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BJ2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BK2" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BL2" s="0" t="s">
+      <x:c r="BH2" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="BI2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BJ2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BK2" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BL2" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:64">
-      <x:c r="A3" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
+    <x:row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="1" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="B3" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="H3" s="0" t="s">
+      <x:c r="H3" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="O3" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="Q3" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="R3" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="S3" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="T3" s="1" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="U3" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="V3" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="W3" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="X3" s="1" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="Y3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="Z3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AA3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AB3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AC3" s="1" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="AD3" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="AG3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AH3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AI3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AJ3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AK3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AL3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AM3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AN3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AO3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AP3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="AQ3" s="1" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="AR3" s="1" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="AS3" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="AT3" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="AU3" s="1" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="O3" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="P3" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="Q3" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="S3" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="T3" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="U3" s="0" t="s">
+      <x:c r="AV3" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="AW3" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="AX3" s="1" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="AY3" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="AZ3" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="BA3" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="BB3" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="BC3" s="1" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="V3" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="W3" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="X3" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="Y3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="Z3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AA3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AB3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AC3" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="AD3" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="AG3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AH3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AI3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AJ3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AK3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AL3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AM3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AN3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AO3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="AP3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="AQ3" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="AR3" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="AS3" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="AT3" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="AU3" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="AV3" s="0" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="AW3" s="0" t="s">
-        <x:v>117</x:v>
-      </x:c>
-      <x:c r="AX3" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="AY3" s="0" t="s">
-        <x:v>118</x:v>
-      </x:c>
-      <x:c r="AZ3" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-      <x:c r="BA3" s="0" t="s">
-        <x:v>120</x:v>
-      </x:c>
-      <x:c r="BB3" s="0" t="s">
+      <x:c r="BD3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BE3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BF3" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="BG3" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="BH3" s="1" t="s">
         <x:v>121</x:v>
       </x:c>
-      <x:c r="BC3" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="BD3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BE3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BF3" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="BG3" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="BH3" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="BI3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BJ3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BK3" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="BL3" s="0" t="s">
+      <x:c r="BI3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BJ3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BK3" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="BL3" s="1" t="s">
         <x:v>67</x:v>
       </x:c>
     </x:row>
